--- a/data/trans_camb/P12_3_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5495402388203818</v>
+        <v>0.9388101951949052</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.146520622668576</v>
+        <v>1.583263363749305</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.421372924383967</v>
+        <v>-8.570376160508184</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13.34353010657629</v>
+        <v>13.93480774179003</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.940104929357919</v>
+        <v>5.240994386902117</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-9.841510195190073</v>
+        <v>-9.321240359344714</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>8.769851482092584</v>
+        <v>8.793891677576845</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.122675631342049</v>
+        <v>4.951108723673403</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-8.077708762514318</v>
+        <v>-7.920027042678603</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.695747352323671</v>
+        <v>10.45516885769429</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.77249307904686</v>
+        <v>11.37490410075098</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.325391780808522</v>
+        <v>-3.179380348908007</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26.28630403849055</v>
+        <v>26.51899292544885</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>17.08897320868602</v>
+        <v>16.51554159748358</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-2.844534329124953</v>
+        <v>-2.777104406295108</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>16.71535612307205</v>
+        <v>16.69945050875871</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>12.21731922011459</v>
+        <v>12.75181794591302</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-3.788091768275017</v>
+        <v>-3.564640282271898</v>
       </c>
     </row>
     <row r="7">
@@ -780,29 +780,29 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.001327982767675256</v>
+        <v>0.08037216978298123</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1244522174897995</v>
+        <v>0.1750423016219392</v>
       </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>1.361740288185735</v>
+        <v>1.42454248448324</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6381438869913487</v>
+        <v>0.5456040611591207</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.9461097085443502</v>
+        <v>-0.9385585167226834</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.053379359125236</v>
+        <v>1.133342519976838</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.6313524944879806</v>
+        <v>0.6164019085206383</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.9678649467058494</v>
+        <v>-0.9656111094114485</v>
       </c>
     </row>
     <row r="9">
@@ -813,29 +813,29 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.526980338705461</v>
+        <v>2.860556020177569</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.943500353101252</v>
+        <v>2.876084689546062</v>
       </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>5.346900638765264</v>
+        <v>5.732633412066169</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.733846555331695</v>
+        <v>3.599416057212329</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.606367088535293</v>
+        <v>-0.6007830188234292</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.505758360693303</v>
+        <v>3.700534327904802</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.552842260985157</v>
+        <v>2.783885145958314</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.8110957317910826</v>
+        <v>-0.8056238247935424</v>
       </c>
     </row>
     <row r="10">
@@ -856,7 +856,7 @@
         <v>-3.923411560393904</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-2.401609200205256</v>
+        <v>-2.401609200205255</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-2.704935869510877</v>
@@ -865,7 +865,7 @@
         <v>-6.328741736857489</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-5.61454253838852</v>
+        <v>-5.614542538388521</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.828871807147465</v>
@@ -885,31 +885,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.601900780525402</v>
+        <v>-4.278508822046299</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.980477086821766</v>
+        <v>-6.903081274331674</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.186261560679077</v>
+        <v>-5.775097865280907</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.67695412769408</v>
+        <v>-6.880310612836664</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-10.21764069048651</v>
+        <v>-10.44303642021629</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-9.12029863216082</v>
+        <v>-9.264824746425129</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.611752266535399</v>
+        <v>-4.574580683244382</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-7.570030754378323</v>
+        <v>-7.663819724612845</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-6.819130380626351</v>
+        <v>-6.407751971092355</v>
       </c>
     </row>
     <row r="12">
@@ -920,31 +920,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.328379146300615</v>
+        <v>2.654822907184062</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.166738163260266</v>
+        <v>-0.8979228153150753</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9983116492850598</v>
+        <v>1.567887105783465</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.3148054604103</v>
+        <v>1.480922606492881</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-2.560264293865404</v>
+        <v>-2.73754150272448</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.177010211915908</v>
+        <v>-2.018554982315123</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7339766590097258</v>
+        <v>0.9644701867914193</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-2.815458719708344</v>
+        <v>-2.582984317773052</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-1.682584445691752</v>
+        <v>-1.318509059874269</v>
       </c>
     </row>
     <row r="13">
@@ -970,7 +970,7 @@
         <v>-0.4549591101839621</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.4036169247480804</v>
+        <v>-0.4036169247480805</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.1661484310577425</v>
@@ -990,31 +990,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4668529255324477</v>
+        <v>-0.4399492895371894</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7089780512994169</v>
+        <v>-0.7029670138657371</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.622912323605917</v>
+        <v>-0.5808371601412575</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4190299003048435</v>
+        <v>-0.4320882634007041</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6299701869759732</v>
+        <v>-0.6392251398668028</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5742288075005445</v>
+        <v>-0.5793311216628857</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3608846507916781</v>
+        <v>-0.3740757631267476</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6125005757743318</v>
+        <v>-0.6162337930197976</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5285379098754447</v>
+        <v>-0.5233382629293811</v>
       </c>
     </row>
     <row r="15">
@@ -1025,31 +1025,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3877382217177857</v>
+        <v>0.4221529349150907</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1577448256520886</v>
+        <v>-0.1288685185512655</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.155539492833873</v>
+        <v>0.3130697618471563</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1291843451822673</v>
+        <v>0.1247153446686384</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1957080712666904</v>
+        <v>-0.2215776684255654</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1855570697338749</v>
+        <v>-0.161323345741519</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08455712220255948</v>
+        <v>0.1040257007761009</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2812701841403512</v>
+        <v>-0.2759936983324026</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1553624474458937</v>
+        <v>-0.1299427067954814</v>
       </c>
     </row>
     <row r="16">
@@ -1099,31 +1099,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.137645571227789</v>
+        <v>2.237637847334169</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.812011730864246</v>
+        <v>1.737796437651637</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.954434082099347</v>
+        <v>3.945479758232041</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.165363350214157</v>
+        <v>6.017520311441944</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2009294425949871</v>
+        <v>0.3287939366581528</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.308927707542987</v>
+        <v>7.545716865854993</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>5.178877631428001</v>
+        <v>5.074081923246592</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.331565823817751</v>
+        <v>1.755863823809914</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>6.721607812117089</v>
+        <v>6.540552209596829</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1134,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.90092393845067</v>
+        <v>7.875150996594446</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.809567271570219</v>
+        <v>7.024116773268328</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.522393744173701</v>
+        <v>9.732930600248094</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.94642098533475</v>
+        <v>13.24988203827219</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.59711026030749</v>
+        <v>5.790918575767872</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.73634413390585</v>
+        <v>13.62397320231104</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.755981756083711</v>
+        <v>9.854272956760214</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.409825928946123</v>
+        <v>5.784087326560871</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.85881063116185</v>
+        <v>10.78051056127523</v>
       </c>
     </row>
     <row r="19">
@@ -1184,7 +1184,7 @@
         <v>1.698260151943057</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>6.139155101750653</v>
+        <v>6.139155101750656</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>5.678998400494779</v>
@@ -1204,31 +1204,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1705515250206205</v>
+        <v>0.4390512293575782</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.008751642278946238</v>
+        <v>0.2132106518859642</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.8446206209905978</v>
+        <v>0.9831017983324203</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>2.112733376207903</v>
+        <v>1.923647083736242</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1355341769513219</v>
+        <v>-0.09878276495093123</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>2.296226804490752</v>
+        <v>2.242060586624823</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>2.212599454006525</v>
+        <v>2.290096475904529</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.5358297979972779</v>
+        <v>0.7277307653192177</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>2.811848113158687</v>
+        <v>2.627856659386111</v>
       </c>
     </row>
     <row r="21">
@@ -1242,22 +1242,22 @@
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>18.52956375621492</v>
+        <v>18.68523710779171</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>6.229442782106798</v>
+        <v>8.028366031758017</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>17.98080262486456</v>
+        <v>18.8310132028057</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>13.60129422601083</v>
+        <v>15.12324466114316</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>8.167565207614762</v>
+        <v>8.480553086661867</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>15.09594014964778</v>
+        <v>16.87346692888483</v>
       </c>
     </row>
     <row r="22">
@@ -1278,7 +1278,7 @@
         <v>5.768464839596119</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.514839068559586</v>
+        <v>4.514839068559584</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>17.13794900217471</v>
@@ -1296,7 +1296,7 @@
         <v>9.687453155577042</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>6.44042926850634</v>
+        <v>6.440429268506342</v>
       </c>
     </row>
     <row r="23">
@@ -1307,31 +1307,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.259429030232812</v>
+        <v>5.320484401085107</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.14154963020802</v>
+        <v>3.10314254829266</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.905657594508677</v>
+        <v>1.749861353593923</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12.06408192855272</v>
+        <v>12.68645723857537</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>8.977475691984669</v>
+        <v>9.523033324405016</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.984418965289255</v>
+        <v>4.38485312889585</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>10.0764860136671</v>
+        <v>10.31469337640766</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>7.054039917725332</v>
+        <v>7.23747788042736</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.025351476659096</v>
+        <v>4.225338373972974</v>
       </c>
     </row>
     <row r="24">
@@ -1342,31 +1342,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.54569830929284</v>
+        <v>12.3122211843319</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.90949362170867</v>
+        <v>9.182178627935683</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.636178718985462</v>
+        <v>8.48769125124976</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>21.97718536457213</v>
+        <v>22.14806607099091</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>18.26933358738968</v>
+        <v>18.38431027918734</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.86002103875869</v>
+        <v>11.85519803861458</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>16.13773182415088</v>
+        <v>16.35445686774332</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>12.49892517919741</v>
+        <v>12.77807265031485</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.17229476247007</v>
+        <v>9.132615406640653</v>
       </c>
     </row>
     <row r="25">
@@ -1383,7 +1383,7 @@
         <v>4.601901293226159</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>3.601797761805729</v>
+        <v>3.601797761805727</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>4.295678555758145</v>
@@ -1401,7 +1401,7 @@
         <v>3.66187130298794</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>2.43449157776724</v>
+        <v>2.434491577767241</v>
       </c>
     </row>
     <row r="26">
@@ -1412,31 +1412,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1.731308119231167</v>
+        <v>1.585780011744264</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1.029147162484384</v>
+        <v>0.9498864583576321</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3870693624633467</v>
+        <v>0.2952789814220846</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2.096492811047975</v>
+        <v>2.114870325639141</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1.459560735381668</v>
+        <v>1.619709150915739</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7677405802304413</v>
+        <v>0.7055777619204189</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2.674403526222686</v>
+        <v>2.795069846911226</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1.928954740226214</v>
+        <v>1.9752658105507</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.056499665775401</v>
+        <v>1.156696655206075</v>
       </c>
     </row>
     <row r="27">
@@ -1447,31 +1447,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>35.28083593107743</v>
+        <v>27.44382154847894</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>23.77904951077381</v>
+        <v>20.04507446227245</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>22.66721989089562</v>
+        <v>17.02915389630907</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>8.256829109573262</v>
+        <v>8.269377680031141</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>6.722989433562583</v>
+        <v>7.41394767044453</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4.41896578750253</v>
+        <v>4.227183612580052</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>8.931017143807043</v>
+        <v>9.61629101583971</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>6.931271788287455</v>
+        <v>7.541830881815697</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>5.117590667451498</v>
+        <v>5.354103861897884</v>
       </c>
     </row>
     <row r="28">
@@ -1501,7 +1501,7 @@
         <v>5.959527225844133</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-2.142689635179765</v>
+        <v>-2.142689635179767</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-5.402345540946868</v>
@@ -1521,31 +1521,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-11.65558053626114</v>
+        <v>-11.67817722552122</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.244543564405291</v>
+        <v>-3.072809620140491</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.41925920775008</v>
+        <v>-1.790041683101514</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-11.48440737167479</v>
+        <v>-11.33412401354589</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.291855405582957</v>
+        <v>-2.46959945740257</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-8.577353883277651</v>
+        <v>-8.392584198474017</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-9.832883439045601</v>
+        <v>-10.76824704216195</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.09834982158860595</v>
+        <v>-0.7049503121667006</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.442079362947471</v>
+        <v>-3.194994059092821</v>
       </c>
     </row>
     <row r="30">
@@ -1556,31 +1556,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-1.103697645298904</v>
+        <v>-1.906639346174431</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.669941184928742</v>
+        <v>9.868993009412639</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.9886589369299</v>
+        <v>10.48263813644545</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.898943626853985</v>
+        <v>2.689885182655913</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.77590868108348</v>
+        <v>12.79830338692874</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.98672231366292</v>
+        <v>4.095710468709799</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.8142880748736496</v>
+        <v>-1.238203946091721</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.734974791592975</v>
+        <v>9.76176493792661</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.478427253729861</v>
+        <v>5.7924008139959</v>
       </c>
     </row>
     <row r="31">
@@ -1606,7 +1606,7 @@
         <v>0.3392787065949041</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.1219843354193464</v>
+        <v>-0.1219843354193465</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.3725829778710049</v>
@@ -1626,31 +1626,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7876989320765846</v>
+        <v>-0.8094801883704468</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.234030800482912</v>
+        <v>-0.2397953367063666</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1221055434203467</v>
+        <v>-0.1414845416964305</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5341356574699619</v>
+        <v>-0.5385968818690972</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.105578740754708</v>
+        <v>-0.1252529616175385</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3916901234542302</v>
+        <v>-0.3722470715375999</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.5838698112146432</v>
+        <v>-0.5895171276081547</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.01360007891623658</v>
+        <v>-0.05176741652246742</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.193222487619566</v>
+        <v>-0.184570222096222</v>
       </c>
     </row>
     <row r="33">
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.04620790674641663</v>
+        <v>-0.1266881573108827</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.115747765421569</v>
+        <v>1.15007237335889</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.297069204173664</v>
+        <v>1.227925021558948</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2350102246952331</v>
+        <v>0.1893683129809609</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.036791676745934</v>
+        <v>0.9310754364237908</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2853442285675442</v>
+        <v>0.3193715435104394</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.04886729322644546</v>
+        <v>-0.08647591661243915</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7941532374710448</v>
+        <v>0.8253222219934303</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4702075293787975</v>
+        <v>0.4787351147771683</v>
       </c>
     </row>
     <row r="34">
@@ -1715,7 +1715,7 @@
         <v>10.20625723891019</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>9.988761093247653</v>
+        <v>9.988761093247648</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>7.683834770944068</v>
@@ -1724,7 +1724,7 @@
         <v>8.215596936691222</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>8.54362056853272</v>
+        <v>8.543620568532722</v>
       </c>
     </row>
     <row r="35">
@@ -1735,31 +1735,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>4.876073908395111</v>
+        <v>4.899101023663526</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>3.639066508134081</v>
+        <v>3.538146774346238</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5.056973080736459</v>
+        <v>4.9015280418684</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3.406996336986768</v>
+        <v>3.563319066135644</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>6.267965462098564</v>
+        <v>5.456019285543991</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>6.240879654785683</v>
+        <v>6.576929311420569</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>5.353587153313008</v>
+        <v>4.969837648353034</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>5.610356630058398</v>
+        <v>5.331907100223215</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>6.236844913236256</v>
+        <v>6.433739004403996</v>
       </c>
     </row>
     <row r="36">
@@ -1770,31 +1770,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>11.67314741571192</v>
+        <v>11.76040686723646</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>9.806078388157053</v>
+        <v>9.63403737741317</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10.13063899312751</v>
+        <v>10.41241931454618</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12.0699648944142</v>
+        <v>11.7779385360985</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>15.67525069008871</v>
+        <v>15.33877840702958</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>13.596572755773</v>
+        <v>13.54949730489855</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>10.60330115894702</v>
+        <v>10.14488743789581</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>11.70034946424472</v>
+        <v>11.22093601447665</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>10.9828094476389</v>
+        <v>10.73952352852819</v>
       </c>
     </row>
     <row r="37">
@@ -1820,7 +1820,7 @@
         <v>3.11728045604784</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>3.050850963995183</v>
+        <v>3.050850963995182</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>4.179662028583748</v>
@@ -1829,7 +1829,7 @@
         <v>4.468916834115929</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>4.647347000739306</v>
+        <v>4.647347000739307</v>
       </c>
     </row>
     <row r="38">
@@ -1843,22 +1843,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>0.6073725526812778</v>
+        <v>0.6023602291852099</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1.181998372392641</v>
+        <v>1.074844184734464</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1.123059244885119</v>
+        <v>1.170383819125754</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1.902431014817014</v>
+        <v>1.747727909185004</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>2.024410323484529</v>
+        <v>1.871654270319572</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>2.065355930488523</v>
+        <v>2.286021484482712</v>
       </c>
     </row>
     <row r="39">
@@ -1872,22 +1872,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>6.725209289039278</v>
+        <v>6.028452498375233</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>9.337555252470324</v>
+        <v>8.461228777517263</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>8.181323235176084</v>
+        <v>7.515280571925583</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>9.942036651297935</v>
+        <v>9.97565258687664</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>11.23944705265924</v>
+        <v>10.02494138235957</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>11.164585450754</v>
+        <v>11.25360287100096</v>
       </c>
     </row>
     <row r="40">
@@ -1926,7 +1926,7 @@
         <v>4.64506156829867</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>11.93497344389852</v>
+        <v>11.93497344389853</v>
       </c>
     </row>
     <row r="41">
@@ -1937,31 +1937,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.101351749194008</v>
+        <v>-1.442577062031067</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.8975424004021045</v>
+        <v>0.6073427756384453</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>6.788531807903965</v>
+        <v>7.045307865770722</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.07301943777052348</v>
+        <v>-0.002464067590650111</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>2.781118384684259</v>
+        <v>2.296656926784483</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>10.12626222894319</v>
+        <v>10.24792567761275</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.2248698829565688</v>
+        <v>0.1560715272000615</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>2.620734734519337</v>
+        <v>2.578694218954686</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>9.436408468974417</v>
+        <v>9.701991326233212</v>
       </c>
     </row>
     <row r="42">
@@ -1972,31 +1972,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.025125868355455</v>
+        <v>3.776670961182113</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6.625894758821073</v>
+        <v>6.180081922234304</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>13.76396385600449</v>
+        <v>14.07181805152616</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.873257362861769</v>
+        <v>5.798480742507076</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>8.775918221903108</v>
+        <v>8.494960090349783</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>16.32642796843432</v>
+        <v>16.4279934978434</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.123551257097808</v>
+        <v>3.860698052643406</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>6.951450318324662</v>
+        <v>6.805219958685685</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>14.3998123837385</v>
+        <v>14.2662246849902</v>
       </c>
     </row>
     <row r="43">
@@ -2031,7 +2031,7 @@
         <v>0.962262166288583</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>2.472426518326842</v>
+        <v>2.472426518326843</v>
       </c>
     </row>
     <row r="44">
@@ -2042,31 +2042,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2082907011384136</v>
+        <v>-0.2650328084917877</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.112924483361056</v>
+        <v>0.09536848218798959</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>1.130397135997864</v>
+        <v>1.089673177211075</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.01649490088743439</v>
+        <v>-0.000254464173072047</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.3950980486234574</v>
+        <v>0.3561556930015649</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.417169348489232</v>
+        <v>1.427694050579287</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03181686133172631</v>
+        <v>0.01741201496356933</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.4587236035040459</v>
+        <v>0.4267652227777725</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.608382713968187</v>
+        <v>1.626699995459796</v>
       </c>
     </row>
     <row r="45">
@@ -2077,31 +2077,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.269525370896128</v>
+        <v>1.163618621691743</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>2.051291105188397</v>
+        <v>1.984223021194424</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>4.361748614268498</v>
+        <v>4.229366908728667</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.404340107753328</v>
+        <v>1.434268763330302</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2.106504760058515</v>
+        <v>2.11548096273444</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>4.081100801958166</v>
+        <v>4.133460916458142</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.068034989445762</v>
+        <v>0.9817526420457303</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.744677186577657</v>
+        <v>1.705750512860798</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>3.71727371212155</v>
+        <v>3.620713542396357</v>
       </c>
     </row>
     <row r="46">
@@ -2122,7 +2122,7 @@
         <v>-0.2045012971265733</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>10.10832994848346</v>
+        <v>10.10832994848347</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-0.215103156959813</v>
@@ -2131,7 +2131,7 @@
         <v>-3.2700470607017</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>10.17226558317906</v>
+        <v>10.17226558317907</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>1.602824592129289</v>
@@ -2151,31 +2151,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.6171795625230786</v>
+        <v>0.6008502469306262</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.769069793764449</v>
+        <v>-2.86084374252019</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>7.017558734993432</v>
+        <v>7.170312354844718</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.556439928382169</v>
+        <v>-4.011028324562571</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-6.367749295000184</v>
+        <v>-6.327273534926173</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>6.68106980446793</v>
+        <v>6.663387017116536</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.5504807942383313</v>
+        <v>-0.6268937009926184</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-3.922727008878218</v>
+        <v>-3.902826521579005</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>7.846096619071255</v>
+        <v>7.466324211076153</v>
       </c>
     </row>
     <row r="48">
@@ -2186,31 +2186,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>6.381712289517965</v>
+        <v>6.35477824191274</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.544870235360901</v>
+        <v>2.492881350335359</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>13.62211640703347</v>
+        <v>13.40934791560553</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.175286924732346</v>
+        <v>3.050178625483017</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.02670333375564775</v>
+        <v>-0.238131635058014</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>13.57809487247819</v>
+        <v>13.36608449341167</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>3.924101558295719</v>
+        <v>3.838253438040694</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.3093172745771419</v>
+        <v>0.2695590374610494</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>12.58580189511137</v>
+        <v>12.55735362063197</v>
       </c>
     </row>
     <row r="49">
@@ -2236,7 +2236,7 @@
         <v>-0.2579554506874153</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.8024322905181588</v>
+        <v>0.8024322905181592</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.1612865980493385</v>
@@ -2256,31 +2256,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.06769611007255275</v>
+        <v>0.05936505409296702</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3404712819208884</v>
+        <v>-0.3462729598054126</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.8194677673399737</v>
+        <v>0.7875677067617329</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2575592639134053</v>
+        <v>-0.2838381034041144</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.4413234069684765</v>
+        <v>-0.4471643405481649</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.4575820198950792</v>
+        <v>0.4459037459015107</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.0503794067725091</v>
+        <v>-0.04903962531515211</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.3513001677162936</v>
+        <v>-0.3504989258282549</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.7140393817973815</v>
+        <v>0.665214287707541</v>
       </c>
     </row>
     <row r="51">
@@ -2291,31 +2291,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.104647726952716</v>
+        <v>1.069925558426011</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.4373043319340214</v>
+        <v>0.415231944871451</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>2.456210836270636</v>
+        <v>2.271183446298655</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2898322557783084</v>
+        <v>0.2837721851001528</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.003020687665727512</v>
+        <v>-0.02494659125299385</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.269024152706267</v>
+        <v>1.235567129939416</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.4312948105509682</v>
+        <v>0.4345173460706124</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.03794425213194973</v>
+        <v>0.03549231082673215</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>1.485638656812918</v>
+        <v>1.424966525981258</v>
       </c>
     </row>
     <row r="52">
@@ -2336,7 +2336,7 @@
         <v>2.311430131281165</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>5.478572149829134</v>
+        <v>5.478572149829133</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>4.815909475456018</v>
@@ -2365,31 +2365,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>1.806975015842883</v>
+        <v>1.867426310253741</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>1.1175368918432</v>
+        <v>1.155527039281373</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>4.054053195962841</v>
+        <v>4.138269632100258</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>3.306486859561343</v>
+        <v>3.379692998301596</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>1.621312195008139</v>
+        <v>1.702101872035239</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>4.815104795405023</v>
+        <v>4.808277680719339</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>2.99421327321911</v>
+        <v>2.902086327342703</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>1.845489312106749</v>
+        <v>1.900823596178013</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>4.784850559854815</v>
+        <v>4.905161691271266</v>
       </c>
     </row>
     <row r="54">
@@ -2400,31 +2400,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>4.34018963330918</v>
+        <v>4.252984481450624</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>3.557039325010636</v>
+        <v>3.515317009219789</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>6.721781081406062</v>
+        <v>6.739538768816013</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>6.464785357587221</v>
+        <v>6.341964214907859</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>4.872070791906661</v>
+        <v>4.728140137717235</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>7.575359718968579</v>
+        <v>7.583438252787035</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>4.925557498211294</v>
+        <v>4.899510561804914</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>3.765627902669149</v>
+        <v>3.868161504578155</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>6.738643298386688</v>
+        <v>6.845056597450111</v>
       </c>
     </row>
     <row r="55">
@@ -2441,7 +2441,7 @@
         <v>0.4561096969208678</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>1.081075239523956</v>
+        <v>1.081075239523955</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.5679734713974239</v>
@@ -2470,31 +2470,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.322671707476879</v>
+        <v>0.3187951034505948</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.1962730622136809</v>
+        <v>0.2013077866404379</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.7238178081697927</v>
+        <v>0.7181174655732735</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.3645273886602785</v>
+        <v>0.3591824072767574</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.1744819970177182</v>
+        <v>0.1849910029860844</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.5076496883991386</v>
+        <v>0.5094454644076476</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.4133783757157441</v>
+        <v>0.3998806585470983</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.2538654849098446</v>
+        <v>0.259103886906986</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.6557576292325681</v>
+        <v>0.6636625055459495</v>
       </c>
     </row>
     <row r="57">
@@ -2505,31 +2505,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.9555874310620694</v>
+        <v>0.935836319968508</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.7811260475576052</v>
+        <v>0.7851182539447625</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.483911930922689</v>
+        <v>1.468528794999527</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.8348533177188182</v>
+        <v>0.8311082649554713</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.6175265113033408</v>
+        <v>0.6134882622521458</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.9758195919292194</v>
+        <v>0.9779056479402138</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.7685002594879368</v>
+        <v>0.7768119640861644</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.5915048197606176</v>
+        <v>0.6096201986119394</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>1.048530776792529</v>
+        <v>1.077119595262273</v>
       </c>
     </row>
     <row r="58">
